--- a/target/classes/com/amt/testData/NewTestData.xlsx
+++ b/target/classes/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="OutrightBCHwithoutMaintenanceEd" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="72">
   <si>
     <t xml:space="preserve">manufacturer</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t xml:space="preserve">main_cost_used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A8</t>
   </si>
   <si>
     <t xml:space="preserve">YES</t>
@@ -375,11 +372,11 @@
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="24.45"/>
@@ -528,7 +525,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -678,7 +675,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.83"/>
@@ -835,7 +832,7 @@
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -947,7 +944,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1041,7 +1038,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1149,11 +1146,11 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -1229,7 +1226,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -1268,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>0.2</v>
@@ -1308,7 +1305,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1444,7 +1441,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1580,7 +1577,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -1695,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>0.2</v>
@@ -1735,7 +1732,7 @@
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -1878,7 +1875,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -2046,7 +2043,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -2161,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>0.2</v>
@@ -2201,7 +2198,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2295,7 +2292,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -2323,19 +2320,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>58</v>
@@ -2344,7 +2341,7 @@
         <v>60</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,7 +2407,7 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
@@ -2532,7 +2529,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.66"/>
@@ -2714,7 +2711,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.66"/>
@@ -2848,7 +2845,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3008,7 +3005,7 @@
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
@@ -3158,7 +3155,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3318,7 +3315,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
